--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koluchikrot/PycharmProjects/pedestrian-crossing-control/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C051B8-AE0A-494D-B596-8E0939648EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611E03D-69E0-6F49-B6A9-5F054269F9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{AED1626F-3090-204F-A72E-F8D10207287A}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>example1@example.com</t>
   </si>
   <si>
+    <t>example3@example.com</t>
+  </si>
+  <si>
     <t>example2@example.com</t>
-  </si>
-  <si>
-    <t>example3@example.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -524,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -554,8 +554,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{4656E7C0-5913-874B-A857-8DE7A77848BF}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{C2035DE7-32BE-DE4C-B540-9C190E33E8C0}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{AB165C8B-8D8A-F947-A9AB-EEEC9FFD93DB}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{AB165C8B-8D8A-F947-A9AB-EEEC9FFD93DB}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{48238F0B-4FD8-244A-B8C9-B9801293876C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
